--- a/results/[0_basic]_#_inv_capacity.xlsx
+++ b/results/[0_basic]_#_inv_capacity.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05602014202366899</v>
+        <v>0.04474792382107892</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0169433230000916</v>
+        <v>0.00646247232419145</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.179538854435732</v>
+        <v>0.1663305890751532</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.249489236137498</v>
+        <v>0.2494892361374956</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.77486800465178</v>
+        <v>4.853324508463283</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2445548113914829</v>
+        <v>0.2012455809495834</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.444763417400864</v>
+        <v>0.3792977562887492</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.678720155011767</v>
+        <v>10.40621503981512</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1879007235847566</v>
+        <v>0.2262063343461108</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6822793742384641</v>
+        <v>0.8562030846578298</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.80904881179005</v>
+        <v>18.83288066699808</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_inv_capacity.xlsx
+++ b/results/[0_basic]_#_inv_capacity.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04474792382107892</v>
+        <v>0.04474792382107798</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00646247232419145</v>
+        <v>0.00646247232419201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374956</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.853324508463283</v>
+        <v>4.853324508463265</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2012455809495834</v>
+        <v>0.2012455809495836</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3792977562887492</v>
+        <v>0.3792977562887489</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.40621503981512</v>
+        <v>10.40621503981511</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2262063343461108</v>
+        <v>0.2262063343461129</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8562030846578298</v>
+        <v>0.8562030846578315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.83288066699808</v>
+        <v>18.83288066699796</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_inv_capacity.xlsx
+++ b/results/[0_basic]_#_inv_capacity.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,21 +481,51 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04474792382107798</v>
+        <v>0.04348208907515334</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00646247232419201</v>
+        <v>0.006716042870701657</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1663305890751532</v>
+        <v>0.1671148532745683</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -516,10 +546,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4932329000000002</v>
       </c>
       <c r="J2" t="n">
-        <v>4.853324508463265</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2143727</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.04554729999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.743866754021175</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.649165963789689</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,18 +632,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2012455809495836</v>
+        <v>0.1958319789176076</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3792977562887489</v>
+        <v>0.3856886677172313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -619,10 +697,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.3689066911829625</v>
       </c>
       <c r="J2" t="n">
-        <v>10.40621503981511</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9462865921503716</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1457066166666667</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.280495176798638</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.639064326839057</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,18 +783,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2262063343461129</v>
+        <v>0.2343129210336785</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8562030846578315</v>
+        <v>0.8432085885737668</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -722,10 +848,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.647856558817038</v>
       </c>
       <c r="J2" t="n">
-        <v>18.83288066699796</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7873819411829617</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3069654999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18.45135138570262</v>
+      </c>
+      <c r="P2" t="n">
+        <v>18.16879531565474</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,12 +934,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -828,6 +1002,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,12 +1085,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -931,6 +1153,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,12 +1236,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -1034,6 +1304,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[0_basic]_#_inv_capacity.xlsx
+++ b/results/[0_basic]_#_inv_capacity.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,15 +506,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -525,7 +520,7 @@
         <v>0.04348208907515334</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006716042870701657</v>
+        <v>0.006716042870702502</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -534,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1671148532745683</v>
+        <v>0.1671148532745675</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -561,13 +556,10 @@
         <v>0.04554729999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.74386675402117</v>
       </c>
       <c r="O2" t="n">
-        <v>4.743866754021175</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.649165963789689</v>
+        <v>3.649165963789684</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,15 +649,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -673,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1958319789176076</v>
+        <v>0.195831978917609</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -685,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3856886677172313</v>
+        <v>0.3856886677172314</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -697,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3689066911829625</v>
+        <v>0.3689066911829628</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,18 +693,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462865921503716</v>
+        <v>0.9462865921503714</v>
       </c>
       <c r="M2" t="n">
         <v>0.1457066166666667</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.280495176798704</v>
       </c>
       <c r="O2" t="n">
-        <v>9.280495176798638</v>
-      </c>
-      <c r="P2" t="n">
         <v>4.639064326839057</v>
       </c>
     </row>
@@ -732,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,15 +792,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -824,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2343129210336785</v>
+        <v>0.2343129210336738</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -836,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8432085885737668</v>
+        <v>0.8432085885737614</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -848,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.647856558817038</v>
+        <v>1.647856558817034</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -857,19 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7873819411829617</v>
+        <v>0.7873819411829643</v>
       </c>
       <c r="M2" t="n">
         <v>0.3069654999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>18.45135138570298</v>
       </c>
       <c r="O2" t="n">
-        <v>18.45135138570262</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18.16879531565474</v>
+        <v>18.16879531565478</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,15 +935,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1017,9 +988,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1034,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,15 +1078,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1168,9 +1131,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1185,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,15 +1221,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1319,9 +1274,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
